--- a/exercises/exercises_groups.xlsx
+++ b/exercises/exercises_groups.xlsx
@@ -1,115 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munnes\Documents\SICSS_2023\exercises\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D37C8-20E6-4CB6-B21C-1666BC2971BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13127" windowHeight="6107" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t xml:space="preserve">day1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica, Frederick, Nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mareike Fenja, Nino, Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mareike Fenja, Frederick, Nikolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chae Won, Jessica, Davide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anica, Nicole, Nikolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicole, Sarah, Konstantin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davide, Anica, Sonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davide, Camille, Jessica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franziska, Camille, Konstantin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstantin, Jessica, Davide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikolina, Davide, Chae Won</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franziska, Anna, Jessica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nino, Nicole, Anica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikolina, Anna, Nicole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camille, Mareike Fenja, Sonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mareike Fenja, Franziska, Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikolina, Chae Won, Konstantin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstantin, Sarah, Franziska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonia, Sarah, Mareike Fenja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nino, Anna, Frederick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna, Sonia, Anica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederick, Nicole, Sarah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonia, Anna, Chae Won</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederick, Anica, Nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarah, Franziska, Chae Won</t>
+    <t>day1</t>
+  </si>
+  <si>
+    <t>day2</t>
+  </si>
+  <si>
+    <t>day3</t>
+  </si>
+  <si>
+    <t>day4</t>
+  </si>
+  <si>
+    <t>day5</t>
+  </si>
+  <si>
+    <t>Jessica, Frederick, Nino</t>
+  </si>
+  <si>
+    <t>Mareike Fenja, Nino, Camille</t>
+  </si>
+  <si>
+    <t>Mareike Fenja, Frederick, Nikolina</t>
+  </si>
+  <si>
+    <t>Chae Won, Jessica, Davide</t>
+  </si>
+  <si>
+    <t>Anica, Nicole, Nikolina</t>
+  </si>
+  <si>
+    <t>Nicole, Sarah, Konstantin</t>
+  </si>
+  <si>
+    <t>Davide, Anica, Sonia</t>
+  </si>
+  <si>
+    <t>Davide, Camille, Jessica</t>
+  </si>
+  <si>
+    <t>Franziska, Camille, Konstantin</t>
+  </si>
+  <si>
+    <t>Konstantin, Jessica, Davide</t>
+  </si>
+  <si>
+    <t>Nikolina, Davide, Chae Won</t>
+  </si>
+  <si>
+    <t>Franziska, Anna, Jessica</t>
+  </si>
+  <si>
+    <t>Nino, Nicole, Anica</t>
+  </si>
+  <si>
+    <t>Nikolina, Anna, Nicole</t>
+  </si>
+  <si>
+    <t>Camille, Mareike Fenja, Sonia</t>
+  </si>
+  <si>
+    <t>Mareike Fenja, Franziska, Camille</t>
+  </si>
+  <si>
+    <t>Nikolina, Chae Won, Konstantin</t>
+  </si>
+  <si>
+    <t>Konstantin, Sarah, Franziska</t>
+  </si>
+  <si>
+    <t>Sonia, Sarah, Mareike Fenja</t>
+  </si>
+  <si>
+    <t>Nino, Anna, Frederick</t>
+  </si>
+  <si>
+    <t>Anna, Sonia, Anica</t>
+  </si>
+  <si>
+    <t>Frederick, Nicole, Sarah</t>
+  </si>
+  <si>
+    <t>Sonia, Anna, Chae Won</t>
+  </si>
+  <si>
+    <t>Frederick, Anica, Nino</t>
+  </si>
+  <si>
+    <t>Sarah, Franziska, Chae Won</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,9 +149,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,14 +442,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="29.29296875" customWidth="1"/>
+    <col min="2" max="2" width="26.05859375" customWidth="1"/>
+    <col min="3" max="3" width="27.703125" customWidth="1"/>
+    <col min="4" max="4" width="24.64453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -467,7 +491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -484,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -501,7 +525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -518,7 +542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -537,6 +561,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>